--- a/Lesson_20200914_0_ProjectRSPImageRobot_Review/Lesson_20200914_0_ProjectRSPImageRobot_Review.xlsx
+++ b/Lesson_20200914_0_ProjectRSPImageRobot_Review/Lesson_20200914_0_ProjectRSPImageRobot_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Lesson_20200914_0_ProjectRSPImageRobot_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="114_{EF16EB1A-5674-461D-825B-24AC3E19E902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98DFEDF1-32F5-4E46-A4EC-82011C42A2CF}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="114_{EF16EB1A-5674-461D-825B-24AC3E19E902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F52696C5-5A15-4BC0-BB1F-6CFBA40A8FCC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7800" yWindow="1344" windowWidth="15180" windowHeight="10188" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>亂數產生手勢圖片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,12 +133,56 @@
     <t>#可使用串列型態或選擇結構替代字典型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>可使用電腦進行猜拳遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜拳遊戲包含機器手掌互動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程式(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜拳功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +202,23 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -187,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +256,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -8483,155 +8546,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I9"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8644,7 +8747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31051CE-D468-4C12-9928-ABAD8CCDFFD9}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2:AP36"/>
     </sheetView>
   </sheetViews>
